--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA292082\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA292082\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -619,43 +619,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -669,12 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,26 +663,62 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1044,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,59 +1062,59 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>43101</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="17">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1135,18 +1135,18 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>43102</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="19">
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -1172,13 +1172,13 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>43103</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -1204,13 +1204,13 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>43104</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -1236,13 +1236,13 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>43105</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
       <c r="E8" s="2">
@@ -1263,50 +1263,50 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>43106</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>43107</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>43108</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="3">
@@ -1327,18 +1327,18 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>43109</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
       <c r="E12" s="1">
@@ -1359,454 +1359,470 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>43110</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="30"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>43111</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>43112</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>43113</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>43114</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>43115</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>43116</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>43117</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="30"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>43118</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>43119</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>43120</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="34"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>43121</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>43122</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>43123</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>43124</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>43125</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>43126</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="30"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>43127</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>43128</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>43129</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>43130</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="14">
         <v>43131</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="49" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20">
+      <c r="C35" s="65"/>
+      <c r="D35" s="15">
         <f>SUM(D4:D34)</f>
+        <v>6</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" ref="E35:K35" si="0">SUM(E4:E34)</f>
         <v>5</v>
       </c>
-      <c r="E35" s="20">
-        <f t="shared" ref="E35:K35" si="0">SUM(E4:E34)</f>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F35" s="20">
+      <c r="I35" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="20">
+      <c r="J35" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H35" s="20">
+      <c r="K35" s="32">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I35" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J35" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="50">
+        <v>2</v>
+      </c>
+      <c r="L35" s="38">
         <f>SUM(D35:K35)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="6">
         <f>30*D35</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E36" s="6">
         <f>35*E35</f>
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F36" s="6">
         <f>40*F35</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G36" s="6">
         <f>40*G35</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H36" s="6">
         <f>50*H35</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I36" s="6">
         <f>40*I35</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="J36" s="6">
         <f>40*J35</f>
-        <v>40</v>
-      </c>
-      <c r="K36" s="45">
+        <v>80</v>
+      </c>
+      <c r="K36" s="33">
         <f>35*K35</f>
-        <v>35</v>
-      </c>
-      <c r="L36" s="50">
+        <v>70</v>
+      </c>
+      <c r="L36" s="38">
         <f>SUM(D36:K36)</f>
-        <v>955</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -1816,125 +1832,125 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="50">
+      <c r="K37" s="34"/>
+      <c r="L37" s="38">
         <f>SUM(D37:K37)</f>
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="8">
         <f>D37-D36</f>
-        <v>-150</v>
+        <v>-180</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ref="E38:K38" si="1">E37-E36</f>
-        <v>-140</v>
+        <v>-175</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>-240</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="1"/>
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="1"/>
-        <v>-160</v>
+        <v>-200</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="1"/>
-        <v>-40</v>
-      </c>
-      <c r="K38" s="47">
+        <v>-80</v>
+      </c>
+      <c r="K38" s="35">
         <f t="shared" si="1"/>
-        <v>-35</v>
-      </c>
-      <c r="L38" s="50">
+        <v>-70</v>
+      </c>
+      <c r="L38" s="38">
         <f>SUM(D38:K38)</f>
-        <v>-705</v>
+        <v>-1015</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26">
+      <c r="C39" s="54"/>
+      <c r="D39" s="16">
         <f>D36-D37</f>
-        <v>150</v>
-      </c>
-      <c r="E39" s="26">
+        <v>180</v>
+      </c>
+      <c r="E39" s="16">
         <f t="shared" ref="E39:K39" si="2">E36-E37</f>
-        <v>140</v>
-      </c>
-      <c r="F39" s="26">
+        <v>175</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I39" s="16">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G39" s="26">
+      <c r="J39" s="16">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H39" s="26">
+      <c r="K39" s="36">
         <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="J39" s="26">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K39" s="48">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="L39" s="50">
+        <v>70</v>
+      </c>
+      <c r="L39" s="38">
         <f>SUM(D39:K39)</f>
-        <v>705</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41" t="s">
+      <c r="I40" s="29"/>
+      <c r="J40" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="30" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Joined on 9th Jan</t>
+  </si>
+  <si>
+    <t>Divyam</t>
+  </si>
+  <si>
+    <t>Siddesh</t>
+  </si>
+  <si>
+    <t>Joined on 11th Jan</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -402,19 +411,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -533,45 +529,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -601,6 +558,124 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -609,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -623,47 +698,35 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -672,19 +735,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,18 +777,43 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,64 +1151,73 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="63" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="M3" s="68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="10">
         <v>43101</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1132,21 +1235,19 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="60"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="12">
         <v>43102</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -1164,21 +1265,19 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="60"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="12">
         <v>43103</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -1196,21 +1295,19 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="12">
         <v>43104</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -1228,21 +1325,19 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="60"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="12">
         <v>43105</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>0</v>
       </c>
       <c r="E8" s="2">
@@ -1257,56 +1352,58 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="57">
+        <v>0</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="12">
         <v>43106</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="12">
         <v>43107</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="12">
         <v>43108</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>1</v>
       </c>
       <c r="E11" s="3">
@@ -1321,24 +1418,26 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="73">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12">
         <v>43109</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="1">
@@ -1353,24 +1452,26 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="56">
+        <v>1</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="74">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12">
         <v>43110</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1385,444 +1486,526 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="56">
+        <v>1</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="74">
+        <v>1</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="12">
         <v>43111</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12">
         <v>43112</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="12">
         <v>43113</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="12">
         <v>43114</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12">
         <v>43115</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="12">
         <v>43116</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12">
         <v>43117</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="12">
         <v>43118</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="12">
         <v>43119</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="12">
         <v>43120</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="12">
         <v>43121</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="12">
         <v>43122</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="12">
         <v>43123</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="12">
         <v>43124</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="12">
         <v>43125</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="12">
         <v>43126</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="12">
         <v>43127</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="12">
         <v>43128</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="12">
         <v>43129</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="12">
         <v>43130</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="71">
         <v>43131</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="37" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="64" t="s">
+    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="15">
+      <c r="C35" s="44"/>
+      <c r="D35" s="13">
         <f>SUM(D4:D34)</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" ref="E35:M35" si="0">SUM(E4:E34)</f>
         <v>6</v>
       </c>
-      <c r="E35" s="15">
-        <f t="shared" ref="E35:K35" si="0">SUM(E4:E34)</f>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F35" s="15">
+      <c r="I35" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G35" s="15">
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H35" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K35" s="32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L35" s="38">
-        <f>SUM(D35:K35)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="N35" s="33">
+        <f>SUM(D35:M35)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="6">
         <f>30*D35</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E36" s="6">
         <f>35*E35</f>
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F36" s="6">
         <f>40*F35</f>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G36" s="6">
         <f>40*G35</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H36" s="6">
         <f>50*H35</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I36" s="6">
         <f>40*I35</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J36" s="6">
-        <f>40*J35</f>
+        <f t="shared" ref="J36:K36" si="1">40*J35</f>
+        <v>40</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L36" s="6">
+        <f>40*L35</f>
         <v>80</v>
       </c>
-      <c r="K36" s="33">
-        <f>35*K35</f>
-        <v>70</v>
-      </c>
-      <c r="L36" s="38">
-        <f>SUM(D36:K36)</f>
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="57" t="s">
+      <c r="M36" s="29">
+        <f>35*M35</f>
+        <v>105</v>
+      </c>
+      <c r="N36" s="33">
+        <f>SUM(D36:M36)</f>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -1832,125 +2015,149 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="38">
-        <f>SUM(D37:K37)</f>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="33">
+        <f>SUM(D37:M37)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="8">
         <f>D37-D36</f>
-        <v>-180</v>
+        <v>-210</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:K38" si="1">E37-E36</f>
-        <v>-175</v>
+        <f t="shared" ref="E38:M38" si="2">E37-E36</f>
+        <v>-210</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>-280</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>-160</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="2"/>
         <v>-240</v>
       </c>
-      <c r="G38" s="8">
-        <f t="shared" si="1"/>
-        <v>-120</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="1"/>
-        <v>-200</v>
-      </c>
       <c r="J38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="2"/>
         <v>-80</v>
       </c>
-      <c r="K38" s="35">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="L38" s="38">
-        <f>SUM(D38:K38)</f>
-        <v>-1015</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="53" t="s">
+      <c r="M38" s="31">
+        <f t="shared" si="2"/>
+        <v>-105</v>
+      </c>
+      <c r="N38" s="33">
+        <f>SUM(D38:M38)</f>
+        <v>-1365</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="16">
+      <c r="C39" s="46"/>
+      <c r="D39" s="14">
         <f>D36-D37</f>
-        <v>180</v>
-      </c>
-      <c r="E39" s="16">
-        <f t="shared" ref="E39:K39" si="2">E36-E37</f>
-        <v>175</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" ref="E39:M39" si="3">E36-E37</f>
+        <v>210</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G39" s="16">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="2"/>
+      <c r="J39" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K39" s="36">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="L39" s="38">
-        <f>SUM(D39:K39)</f>
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61" t="s">
+      <c r="M39" s="32">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="N39" s="33">
+        <f>SUM(D39:M39)</f>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29" t="s">
+      <c r="C40" s="54"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29" t="s">
+      <c r="I40" s="26"/>
+      <c r="J40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="M40" s="27" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -741,45 +741,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -814,6 +775,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,12 +1160,12 @@
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -1173,40 +1173,40 @@
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="55" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1235,10 +1235,10 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -1265,10 +1265,10 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -1295,10 +1295,10 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
@@ -1325,10 +1325,10 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1352,13 +1352,13 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="57">
-        <v>0</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -1373,10 +1373,10 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1391,8 +1391,8 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
@@ -1418,12 +1418,12 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="73">
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="60">
         <v>0</v>
       </c>
       <c r="M11" s="16">
@@ -1452,12 +1452,12 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="56">
-        <v>1</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="74">
+      <c r="I12" s="43">
+        <v>1</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="61">
         <v>1</v>
       </c>
       <c r="M12" s="18">
@@ -1486,12 +1486,12 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="56">
-        <v>1</v>
-      </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="74">
+      <c r="I13" s="43">
+        <v>1</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="61">
         <v>1</v>
       </c>
       <c r="M13" s="18">
@@ -1543,18 +1543,36 @@
       <c r="C15" s="12">
         <v>43112</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
@@ -1881,10 +1899,10 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="58">
         <v>43131</v>
       </c>
       <c r="D34" s="24"/>
@@ -1896,47 +1914,47 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="69" t="s">
+      <c r="M34" s="59"/>
+      <c r="N34" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="13">
         <f>SUM(D4:D34)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" ref="E35:M35" si="0">SUM(E4:E34)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J35" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="0"/>
@@ -1944,49 +1962,49 @@
       </c>
       <c r="M35" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="33">
         <f>SUM(D35:M35)</f>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="6">
         <f>30*D35</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="E36" s="6">
         <f>35*E35</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F36" s="6">
         <f>40*F35</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G36" s="6">
         <f>40*G35</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H36" s="6">
         <f>50*H35</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I36" s="6">
         <f>40*I35</f>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" ref="J36:K36" si="1">40*J35</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L36" s="6">
         <f>40*L35</f>
@@ -1994,18 +2012,18 @@
       </c>
       <c r="M36" s="29">
         <f>35*M35</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N36" s="33">
         <f>SUM(D36:M36)</f>
-        <v>1615</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -2024,41 +2042,41 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="8">
         <f>D37-D36</f>
-        <v>-210</v>
+        <v>-240</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ref="E38:M38" si="2">E37-E36</f>
-        <v>-210</v>
+        <v>-245</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="2"/>
-        <v>-280</v>
+        <v>-320</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="2"/>
-        <v>-160</v>
+        <v>-200</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="2"/>
-        <v>-240</v>
+        <v>-280</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="2"/>
@@ -2066,49 +2084,49 @@
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
-        <v>-105</v>
+        <v>-140</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(D38:M38)</f>
-        <v>-1365</v>
+        <v>-1715</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="14">
         <f>D36-D37</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ref="E39:M39" si="3">E36-E37</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="3"/>
@@ -2116,18 +2134,18 @@
       </c>
       <c r="M39" s="32">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N39" s="33">
         <f>SUM(D39:M39)</f>
-        <v>1365</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>

--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA292082\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
+    <sheet name="February" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>Joined on 11th Jan</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Joined on 1st Feb</t>
   </si>
 </sst>
 </file>
@@ -231,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -680,11 +687,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -723,9 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -775,14 +803,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1137,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,56 +1198,56 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="52" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1235,10 +1276,10 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -1265,10 +1306,10 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -1295,10 +1336,10 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
@@ -1325,10 +1366,10 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1352,13 +1393,13 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -1367,16 +1408,16 @@
       <c r="C9" s="12">
         <v>43106</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1385,16 +1426,16 @@
       <c r="C10" s="12">
         <v>43107</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -1418,12 +1459,12 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="60">
+      <c r="I11" s="39">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="57">
         <v>0</v>
       </c>
       <c r="M11" s="16">
@@ -1452,12 +1493,12 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="43">
-        <v>1</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="61">
+      <c r="I12" s="40">
+        <v>1</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="58">
         <v>1</v>
       </c>
       <c r="M12" s="18">
@@ -1486,12 +1527,12 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="43">
-        <v>1</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="61">
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="58">
         <v>1</v>
       </c>
       <c r="M13" s="18">
@@ -1592,113 +1633,213 @@
       <c r="L16" s="4"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="12">
         <v>43114</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="23"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="59">
         <v>43115</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="18"/>
+      <c r="D18" s="63">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
+        <v>1</v>
+      </c>
+      <c r="F18" s="64">
+        <v>0</v>
+      </c>
+      <c r="G18" s="64">
+        <v>1</v>
+      </c>
+      <c r="H18" s="64">
+        <v>0</v>
+      </c>
+      <c r="I18" s="64">
+        <v>1</v>
+      </c>
+      <c r="J18" s="64">
+        <v>1</v>
+      </c>
+      <c r="K18" s="64">
+        <v>1</v>
+      </c>
+      <c r="L18" s="64">
+        <v>1</v>
+      </c>
+      <c r="M18" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="59">
         <v>43116</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="18"/>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="59">
         <v>43117</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="18"/>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="59">
         <v>43118</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="59">
         <v>43119</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="18"/>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -1707,16 +1848,16 @@
       <c r="C23" s="12">
         <v>43120</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="21"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -1743,16 +1884,36 @@
       <c r="C25" s="12">
         <v>43122</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="18"/>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
@@ -1761,16 +1922,36 @@
       <c r="C26" s="12">
         <v>43123</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="18"/>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
@@ -1779,16 +1960,36 @@
       <c r="C27" s="12">
         <v>43124</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="18"/>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
@@ -1797,16 +1998,36 @@
       <c r="C28" s="12">
         <v>43125</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="18"/>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
@@ -1815,16 +2036,36 @@
       <c r="C29" s="12">
         <v>43126</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="18"/>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
@@ -1869,16 +2110,36 @@
       <c r="C32" s="12">
         <v>43129</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="18"/>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
@@ -1887,149 +2148,189 @@
       <c r="C33" s="12">
         <v>43130</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="18"/>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="55">
         <v>43131</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="56" t="s">
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0</v>
+      </c>
+      <c r="I34" s="25">
+        <v>1</v>
+      </c>
+      <c r="J34" s="25">
+        <v>1</v>
+      </c>
+      <c r="K34" s="25">
+        <v>1</v>
+      </c>
+      <c r="L34" s="25">
+        <v>1</v>
+      </c>
+      <c r="M34" s="56">
+        <v>1</v>
+      </c>
+      <c r="N34" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="13">
         <f>SUM(D4:D34)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" ref="E35:M35" si="0">SUM(E4:E34)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J35" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M35" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N35" s="33">
         <f>SUM(D35:M35)</f>
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="6">
         <f>30*D35</f>
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="E36" s="6">
         <f>35*E35</f>
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="F36" s="6">
         <f>40*F35</f>
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="G36" s="6">
         <f>40*G35</f>
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="H36" s="6">
         <f>50*H35</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I36" s="6">
         <f>40*I35</f>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" ref="J36:K36" si="1">40*J35</f>
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="L36" s="6">
         <f>40*L35</f>
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="M36" s="29">
         <f>35*M35</f>
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N36" s="33">
         <f>SUM(D36:M36)</f>
-        <v>1965</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -2038,114 +2339,114 @@
       <c r="M37" s="30"/>
       <c r="N37" s="33">
         <f>SUM(D37:M37)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="8">
         <f>D37-D36</f>
-        <v>-240</v>
+        <v>-420</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ref="E38:M38" si="2">E37-E36</f>
-        <v>-245</v>
+        <v>-490</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="2"/>
-        <v>-320</v>
+        <v>-560</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>-360</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="2"/>
-        <v>-280</v>
+        <v>-560</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="2"/>
-        <v>-80</v>
+        <v>-360</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" si="2"/>
-        <v>-80</v>
+        <v>-320</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="2"/>
-        <v>-80</v>
+        <v>-360</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
-        <v>-140</v>
+        <v>-350</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(D38:M38)</f>
-        <v>-1715</v>
+        <v>-3780</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="14">
         <f>D36-D37</f>
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ref="E39:M39" si="3">E36-E37</f>
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="M39" s="32">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N39" s="33">
         <f>SUM(D39:M39)</f>
-        <v>1715</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
@@ -2169,8 +2470,8 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B36:C36"/>
@@ -2183,4 +2484,920 @@
     <ignoredError sqref="H36" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43132</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43133</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43134</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43135</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43136</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43137</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43138</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43139</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43140</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43141</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43142</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43143</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43144</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43145</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43146</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43147</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43148</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43149</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43150</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43151</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43152</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43153</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43154</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43155</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43156</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43157</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43158</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43159</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="13">
+        <f>SUM(D4:D29)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <f>SUM(E4:E29)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <f>SUM(F4:F29)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <f>SUM(G4:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <f>SUM(H4:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <f>SUM(I4:I29)</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <f>SUM(J4:J29)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <f>SUM(K4:K29)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="28">
+        <f>SUM(L4:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <f>SUM(M4:M29)</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="28">
+        <f>SUM(N4:N29)</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="33">
+        <f>SUM(D32:N32)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="6">
+        <f>30*D32</f>
+        <v>30</v>
+      </c>
+      <c r="E33" s="6">
+        <f>35*E32</f>
+        <v>35</v>
+      </c>
+      <c r="F33" s="6">
+        <f>40*F32</f>
+        <v>40</v>
+      </c>
+      <c r="G33" s="6">
+        <f>40*G32</f>
+        <v>40</v>
+      </c>
+      <c r="H33" s="6">
+        <f>50*H32</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f>40*I32</f>
+        <v>40</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" ref="J33:K33" si="0">40*J32</f>
+        <v>40</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L33" s="29">
+        <f>40*L32</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f>35*M32</f>
+        <v>35</v>
+      </c>
+      <c r="N33" s="29">
+        <f>40*N32</f>
+        <v>40</v>
+      </c>
+      <c r="O33" s="33">
+        <f>SUM(D33:N33)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="33">
+        <f>SUM(D34:N34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="8">
+        <f>D34-D33</f>
+        <v>-30</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35:N35" si="1">E34-E33</f>
+        <v>-35</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="L35" s="31">
+        <f t="shared" ref="L35" si="2">L34-L33</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="N35" s="31">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="O35" s="33">
+        <f>SUM(D35:N35)</f>
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="14">
+        <f>D33-D34</f>
+        <v>30</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" ref="E36:N36" si="3">E33-E34</f>
+        <v>35</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" ref="L36" si="4">L33-L34</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="N36" s="32">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="O36" s="33">
+        <f>SUM(D36:N36)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Day</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Joined on 1st Feb</t>
+  </si>
+  <si>
+    <t>Feburary 2018</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,12 +2337,16 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="7">
+        <v>320</v>
+      </c>
+      <c r="L37" s="7">
+        <v>360</v>
+      </c>
       <c r="M37" s="30"/>
       <c r="N37" s="33">
         <f>SUM(D37:M37)</f>
-        <v>350</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2377,11 +2384,11 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" si="2"/>
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="2"/>
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
@@ -2389,7 +2396,7 @@
       </c>
       <c r="N38" s="33">
         <f>SUM(D38:M38)</f>
-        <v>-3780</v>
+        <v>-3100</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2427,11 +2434,11 @@
       </c>
       <c r="K39" s="14">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="M39" s="32">
         <f t="shared" si="3"/>
@@ -2439,7 +2446,7 @@
       </c>
       <c r="N39" s="33">
         <f>SUM(D39:M39)</f>
-        <v>3780</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2490,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2518,7 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="66" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -2615,17 +2622,39 @@
       <c r="C5" s="10">
         <v>43133</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -2672,17 +2701,39 @@
       <c r="C8" s="10">
         <v>43136</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -3127,52 +3178,52 @@
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="13">
-        <f>SUM(D4:D29)</f>
-        <v>1</v>
+        <f t="shared" ref="D32:N32" si="0">SUM(D4:D29)</f>
+        <v>3</v>
       </c>
       <c r="E32" s="13">
-        <f>SUM(E4:E29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F32" s="13">
-        <f>SUM(F4:F29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
-        <f>SUM(G4:G29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H32" s="13">
-        <f>SUM(H4:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="13">
-        <f>SUM(I4:I29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J32" s="13">
-        <f>SUM(J4:J29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K32" s="13">
-        <f>SUM(K4:K29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L32" s="28">
-        <f>SUM(L4:L29)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M32" s="13">
-        <f>SUM(M4:M29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="N32" s="28">
-        <f>SUM(N4:N29)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O32" s="33">
         <f>SUM(D32:N32)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -3182,19 +3233,19 @@
       <c r="C33" s="76"/>
       <c r="D33" s="6">
         <f>30*D32</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E33" s="6">
         <f>35*E32</f>
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F33" s="6">
         <f>40*F32</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G33" s="6">
         <f>40*G32</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" s="6">
         <f>50*H32</f>
@@ -3202,31 +3253,31 @@
       </c>
       <c r="I33" s="6">
         <f>40*I32</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" ref="J33:K33" si="0">40*J32</f>
-        <v>40</v>
+        <f t="shared" ref="J33:K33" si="1">40*J32</f>
+        <v>80</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="L33" s="29">
         <f>40*L32</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M33" s="6">
         <f>35*M32</f>
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N33" s="29">
         <f>40*N32</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O33" s="33">
         <f>SUM(D33:N33)</f>
-        <v>340</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -3257,51 +3308,51 @@
       <c r="C35" s="80"/>
       <c r="D35" s="8">
         <f>D34-D33</f>
-        <v>-30</v>
+        <v>-90</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:N35" si="1">E34-E33</f>
-        <v>-35</v>
+        <f t="shared" ref="E35:N35" si="2">E34-E33</f>
+        <v>-105</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>-120</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="2"/>
+        <v>-120</v>
+      </c>
+      <c r="L35" s="31">
+        <f t="shared" ref="L35" si="3">L34-L33</f>
         <v>-40</v>
       </c>
-      <c r="G35" s="8">
-        <f t="shared" si="1"/>
-        <v>-40</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="1"/>
-        <v>-40</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="1"/>
-        <v>-40</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" si="1"/>
-        <v>-40</v>
-      </c>
-      <c r="L35" s="31">
-        <f t="shared" ref="L35" si="2">L34-L33</f>
-        <v>0</v>
-      </c>
       <c r="M35" s="8">
-        <f t="shared" si="1"/>
-        <v>-35</v>
+        <f t="shared" si="2"/>
+        <v>-105</v>
       </c>
       <c r="N35" s="31">
-        <f t="shared" si="1"/>
-        <v>-40</v>
+        <f t="shared" si="2"/>
+        <v>-120</v>
       </c>
       <c r="O35" s="33">
         <f>SUM(D35:N35)</f>
-        <v>-340</v>
+        <v>-940</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3311,51 +3362,51 @@
       <c r="C36" s="74"/>
       <c r="D36" s="14">
         <f>D33-D34</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" ref="E36:N36" si="3">E33-E34</f>
-        <v>35</v>
+        <f t="shared" ref="E36:N36" si="4">E33-E34</f>
+        <v>105</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" ref="L36" si="5">L33-L34</f>
         <v>40</v>
       </c>
-      <c r="G36" s="14">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="14">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="L36" s="32">
-        <f t="shared" ref="L36" si="4">L33-L34</f>
-        <v>0</v>
-      </c>
       <c r="M36" s="14">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="N36" s="32">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="O36" s="33">
         <f>SUM(D36:N36)</f>
-        <v>340</v>
+        <v>940</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/TiffinTracker.xlsx
+++ b/TiffinTracker.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
     <sheet name="February" sheetId="2" r:id="rId2"/>
+    <sheet name="March" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -127,6 +128,15 @@
   </si>
   <si>
     <t>Feburary 2018</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>Joined on 16th Feb</t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
 </sst>
 </file>
@@ -241,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -714,11 +724,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -813,6 +880,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,20 +1287,20 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
@@ -2224,10 +2310,10 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="13">
         <f>SUM(D4:D34)</f>
         <v>14</v>
@@ -2274,10 +2360,10 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="6">
         <f>30*D35</f>
         <v>420</v>
@@ -2324,51 +2410,65 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="7">
+        <v>420</v>
+      </c>
+      <c r="E37" s="7">
+        <v>490</v>
+      </c>
+      <c r="F37" s="7">
+        <v>560</v>
+      </c>
+      <c r="G37" s="7">
+        <v>760</v>
+      </c>
       <c r="H37" s="7">
         <v>350</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="7">
+        <v>560</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1160</v>
+      </c>
       <c r="K37" s="7">
         <v>320</v>
       </c>
       <c r="L37" s="7">
         <v>360</v>
       </c>
-      <c r="M37" s="30"/>
+      <c r="M37" s="30">
+        <v>400</v>
+      </c>
       <c r="N37" s="33">
         <f>SUM(D37:M37)</f>
-        <v>1030</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="8">
         <f>D37-D36</f>
-        <v>-420</v>
+        <v>0</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ref="E38:M38" si="2">E37-E36</f>
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="2"/>
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="2"/>
-        <v>-360</v>
+        <v>400</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
@@ -2376,11 +2476,11 @@
       </c>
       <c r="I38" s="8">
         <f t="shared" si="2"/>
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="2"/>
-        <v>-360</v>
+        <v>800</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" si="2"/>
@@ -2392,33 +2492,33 @@
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
-        <v>-350</v>
+        <v>50</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(D38:M38)</f>
-        <v>-3100</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="14">
         <f>D36-D37</f>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ref="E39:M39" si="3">E36-E37</f>
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="3"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>-400</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="3"/>
@@ -2426,11 +2526,11 @@
       </c>
       <c r="I39" s="14">
         <f t="shared" si="3"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>-800</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="3"/>
@@ -2442,18 +2542,18 @@
       </c>
       <c r="M39" s="32">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>-50</v>
       </c>
       <c r="N39" s="33">
         <f>SUM(D39:M39)</f>
-        <v>3100</v>
+        <v>-1250</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
@@ -2495,10 +2595,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O37"/>
+  <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="11" ySplit="9" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,29 +2614,31 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-    </row>
-    <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
@@ -2570,11 +2675,14 @@
       <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2608,14 +2716,15 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="70"/>
+      <c r="O4" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2649,14 +2758,15 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="40">
+        <v>1</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -2673,9 +2783,10 @@
       <c r="K6" s="42"/>
       <c r="L6" s="43"/>
       <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="71"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2692,9 +2803,10 @@
       <c r="K7" s="42"/>
       <c r="L7" s="38"/>
       <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="71"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2728,90 +2840,183 @@
       <c r="L8" s="17">
         <v>1</v>
       </c>
-      <c r="M8" s="17">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="67">
+        <v>1</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="10">
         <v>43137</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1</v>
+      </c>
+      <c r="M9" s="67">
+        <v>1</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10">
         <v>43138</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1</v>
+      </c>
+      <c r="M10" s="67">
+        <v>1</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10">
         <v>43139</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="67">
+        <v>1</v>
+      </c>
+      <c r="N11" s="71"/>
+      <c r="O11" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>43140</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="67">
+        <v>1</v>
+      </c>
+      <c r="N12" s="71"/>
+      <c r="O12" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2828,9 +3033,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="21"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="71"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
@@ -2847,237 +3053,482 @@
       <c r="K14" s="61"/>
       <c r="L14" s="62"/>
       <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="71"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10">
         <v>43143</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
+      <c r="M15" s="40">
+        <v>1</v>
+      </c>
+      <c r="N15" s="71"/>
+      <c r="O15" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10">
         <v>43144</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="67">
+        <v>1</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10">
         <v>43145</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="67">
+        <v>0</v>
+      </c>
+      <c r="N17" s="71"/>
+      <c r="O17" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="10">
         <v>43146</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" s="67">
+        <v>1</v>
+      </c>
+      <c r="N18" s="72"/>
+      <c r="O18" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="10">
         <v>43147</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="10">
         <v>43148</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="20"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="10">
         <v>43149</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="10">
         <v>43150</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="10">
         <v>43151</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
+        <v>1</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="10">
         <v>43152</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17">
+        <v>1</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="10">
         <v>43153</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="10">
         <v>43154</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
@@ -3094,9 +3545,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="21"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="4"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
@@ -3113,307 +3565,404 @@
       <c r="K28" s="5"/>
       <c r="L28" s="23"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="5"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="10">
         <v>43157</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17">
+        <v>1</v>
+      </c>
+      <c r="M29" s="17">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="10">
         <v>43158</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-    </row>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17">
+        <v>1</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="10">
         <v>43159</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-    </row>
-    <row r="32" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17">
+        <v>1</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1</v>
+      </c>
+      <c r="O31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="13">
-        <f t="shared" ref="D32:N32" si="0">SUM(D4:D29)</f>
-        <v>3</v>
+        <f t="shared" ref="D32:O32" si="0">SUM(D4:D31)</f>
+        <v>17</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J32" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N32" s="28">
+        <v>17</v>
+      </c>
+      <c r="N32" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O32" s="33">
-        <f>SUM(D32:N32)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="28">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P32" s="33">
+        <f>SUM(D32:O32)</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="6">
         <f>30*D32</f>
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="E33" s="6">
         <f>35*E32</f>
-        <v>105</v>
+        <v>595</v>
       </c>
       <c r="F33" s="6">
         <f>40*F32</f>
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="G33" s="6">
         <f>40*G32</f>
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="H33" s="6">
         <f>50*H32</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I33" s="6">
         <f>40*I32</f>
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" ref="J33:K33" si="1">40*J32</f>
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="L33" s="29">
         <f>40*L32</f>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M33" s="6">
         <f>35*M32</f>
-        <v>105</v>
-      </c>
-      <c r="N33" s="29">
+        <v>595</v>
+      </c>
+      <c r="N33" s="6">
         <f>40*N32</f>
-        <v>120</v>
-      </c>
-      <c r="O33" s="33">
-        <f>SUM(D33:N33)</f>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" s="29">
+        <f>40*O32</f>
+        <v>680</v>
+      </c>
+      <c r="P33" s="33">
+        <f>SUM(D33:O33)</f>
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>50</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="30"/>
+      <c r="L34" s="30">
+        <v>400</v>
+      </c>
       <c r="M34" s="7"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="33">
-        <f>SUM(D34:N34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="79" t="s">
+      <c r="N34" s="7"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="33">
+        <f>SUM(D34:O34)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="80"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="8">
-        <f>D34-D33</f>
-        <v>-90</v>
+        <f>(D34+January!D38)-D33</f>
+        <v>-510</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:N35" si="2">E34-E33</f>
-        <v>-105</v>
+        <f>(E34+January!E38)-E33</f>
+        <v>-595</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="2"/>
-        <v>-120</v>
+        <f>(F34+January!F38)-F33</f>
+        <v>-640</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="2"/>
-        <v>-80</v>
+        <f>(G34+January!G38)-G33</f>
+        <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="2"/>
+        <f>(H34+January!H38)-H33</f>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
-        <v>-80</v>
+        <f>(I34+January!I38)-I33</f>
+        <v>-640</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="2"/>
-        <v>-80</v>
+        <f>(J34+January!J38)-J33</f>
+        <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="2"/>
-        <v>-120</v>
-      </c>
-      <c r="L35" s="31">
-        <f t="shared" ref="L35" si="3">L34-L33</f>
-        <v>-40</v>
+        <f>(K34+January!K38)-K33</f>
+        <v>-680</v>
+      </c>
+      <c r="L35" s="8">
+        <f>(L34+January!L38)-L33</f>
+        <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="2"/>
-        <v>-105</v>
-      </c>
-      <c r="N35" s="31">
-        <f t="shared" si="2"/>
-        <v>-120</v>
-      </c>
-      <c r="O35" s="33">
-        <f>SUM(D35:N35)</f>
-        <v>-940</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="73" t="s">
+        <f>(M34+January!M38)-M33</f>
+        <v>-545</v>
+      </c>
+      <c r="N35" s="8">
+        <f>(N34)-N33</f>
+        <v>-280</v>
+      </c>
+      <c r="O35" s="8">
+        <f>O34-O33</f>
+        <v>-680</v>
+      </c>
+      <c r="P35" s="33">
+        <f>SUM(D35:O35)</f>
+        <v>-4330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="14">
-        <f>D33-D34</f>
-        <v>90</v>
+        <f>D33-(D34+January!D38)</f>
+        <v>510</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" ref="E36:N36" si="4">E33-E34</f>
-        <v>105</v>
+        <f>E33-(E34+January!E38)</f>
+        <v>595</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f>F33-(F34+January!F38)</f>
+        <v>640</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>G33-(G34+January!G38)</f>
+        <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" si="4"/>
+        <f>H33-(H34+January!H38)</f>
         <v>0</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>I33-(I34+January!I38)</f>
+        <v>640</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>J33-(J34+January!J38)</f>
+        <v>-240</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="L36" s="32">
-        <f t="shared" ref="L36" si="5">L33-L34</f>
-        <v>40</v>
+        <f>K33-(K34+January!K38)</f>
+        <v>680</v>
+      </c>
+      <c r="L36" s="14">
+        <f>L33-(L34+January!L38)</f>
+        <v>0</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="N36" s="32">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="O36" s="33">
-        <f>SUM(D36:N36)</f>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
+        <f>M33-(M34+January!M38)</f>
+        <v>545</v>
+      </c>
+      <c r="N36" s="14">
+        <f>N33-(N34)</f>
+        <v>280</v>
+      </c>
+      <c r="O36" s="32">
+        <f t="shared" ref="O36" si="2">O33-O34</f>
+        <v>680</v>
+      </c>
+      <c r="P36" s="33">
+        <f>SUM(D36:O36)</f>
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -3434,14 +3983,17 @@
       <c r="M37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="27" t="s">
+      <c r="N37" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="27" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B2:O2"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -3451,4 +4003,1103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="76"/>
+    </row>
+    <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43160</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43161</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43162</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43163</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43164</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="67">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43165</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="67">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1</v>
+      </c>
+      <c r="N9" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43166</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="67">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43167</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="67"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="58"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43168</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="58"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43169</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43170</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43171</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="68"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43172</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43173</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="67"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="58"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43174</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="67"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="58"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43175</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43176</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43177</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43178</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43179</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43180</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43181</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43182</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43183</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43184</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43185</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43186</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43187</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43188</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43189</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43190</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="13">
+        <f t="shared" ref="D35:N35" si="0">SUM(D4:D34)</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K35" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N35" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O35" s="33">
+        <f>SUM(D35:N35)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="6">
+        <f>35*D35</f>
+        <v>105</v>
+      </c>
+      <c r="E36" s="6">
+        <f>40*E35</f>
+        <v>120</v>
+      </c>
+      <c r="F36" s="6">
+        <f>40*F35</f>
+        <v>160</v>
+      </c>
+      <c r="G36" s="6">
+        <f>50*G35</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <f>40*H35</f>
+        <v>160</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:J36" si="1">40*I35</f>
+        <v>160</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K36" s="29">
+        <f>40*K35</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <f>35*L35</f>
+        <v>140</v>
+      </c>
+      <c r="M36" s="6">
+        <f>40*M35</f>
+        <v>160</v>
+      </c>
+      <c r="N36" s="29">
+        <f>40*N35</f>
+        <v>160</v>
+      </c>
+      <c r="O36" s="33">
+        <f>SUM(D36:N36)</f>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <v>50</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="33">
+        <f>SUM(D37:N37)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="8">
+        <f>(D37+February!E35)-D36</f>
+        <v>-700</v>
+      </c>
+      <c r="E38" s="8">
+        <f>(E37+February!F35)-E36</f>
+        <v>-760</v>
+      </c>
+      <c r="F38" s="8">
+        <f>(F37+February!G35)-F36</f>
+        <v>-160</v>
+      </c>
+      <c r="G38" s="8">
+        <f>(G37+February!H35)-G36</f>
+        <v>50</v>
+      </c>
+      <c r="H38" s="8">
+        <f>(H37+February!I35)-H36</f>
+        <v>-800</v>
+      </c>
+      <c r="I38" s="8">
+        <f>(I37+February!J35)-I36</f>
+        <v>80</v>
+      </c>
+      <c r="J38" s="8">
+        <f>(J37+February!K35)-J36</f>
+        <v>-840</v>
+      </c>
+      <c r="K38" s="8">
+        <f>(K37+February!L35)-K36</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <f>(L37+February!M35)-L36</f>
+        <v>-685</v>
+      </c>
+      <c r="M38" s="8">
+        <f>(M37+February!N35)-M36</f>
+        <v>-440</v>
+      </c>
+      <c r="N38" s="8">
+        <f>(N37+February!O35)-N36</f>
+        <v>-840</v>
+      </c>
+      <c r="O38" s="33">
+        <f>SUM(D38:N38)</f>
+        <v>-5095</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="14">
+        <f>D36-(D37+February!E35)</f>
+        <v>700</v>
+      </c>
+      <c r="E39" s="14">
+        <f>E36-(E37+February!F35)</f>
+        <v>760</v>
+      </c>
+      <c r="F39" s="14">
+        <f>F36-(F37+February!G35)</f>
+        <v>160</v>
+      </c>
+      <c r="G39" s="14">
+        <f>G36-(G37+February!H35)</f>
+        <v>-50</v>
+      </c>
+      <c r="H39" s="14">
+        <f>H36-(H37+February!I35)</f>
+        <v>800</v>
+      </c>
+      <c r="I39" s="14">
+        <f>I36-(I37+February!J35)</f>
+        <v>-80</v>
+      </c>
+      <c r="J39" s="14">
+        <f>J36-(J37+February!K35)</f>
+        <v>840</v>
+      </c>
+      <c r="K39" s="14">
+        <f>K36-(K37+February!L35)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="14">
+        <f>L36-(L37+February!M35)</f>
+        <v>685</v>
+      </c>
+      <c r="M39" s="14">
+        <f>M36-(M37+February!N35)</f>
+        <v>440</v>
+      </c>
+      <c r="N39" s="14">
+        <f>N36-(N37+February!O35)</f>
+        <v>840</v>
+      </c>
+      <c r="O39" s="33">
+        <f>SUM(D39:N39)</f>
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>